--- a/ref/API specs.xlsx
+++ b/ref/API specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqun_tang/Documents/_TBWA/TBWA_PROJECTS/QUANTUM_trains/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E617BDF-5C64-A347-9249-633B069E65CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5B95E-04DF-3D47-9808-0C7537B66F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="2240" windowWidth="19440" windowHeight="17440" xr2:uid="{37C3DBA7-E0B5-0346-BFA8-B177C5668039}"/>
+    <workbookView xWindow="-380" yWindow="6000" windowWidth="31880" windowHeight="17440" xr2:uid="{37C3DBA7-E0B5-0346-BFA8-B177C5668039}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>API</t>
   </si>
@@ -109,15 +109,9 @@
     <t>https://www.transportapi.com/plans/</t>
   </si>
   <si>
-    <t>https://www.travelfusion.com/corporate/page/tf-rail-api</t>
-  </si>
-  <si>
     <t>https://citymapper.com/api</t>
   </si>
   <si>
-    <t>http://www.realtimetrains.co.uk/api/pull</t>
-  </si>
-  <si>
     <t>http://raildar.co.uk/#pricing</t>
   </si>
   <si>
@@ -257,16 +251,38 @@
   </si>
   <si>
     <t>to get unique train data as well as train service status, try looking at http://www.nationalrail.co.uk/service_disruptions/indicator.aspx</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>http://xmldocs.travelfusion.com/home/guidelines/trains</t>
+  </si>
+  <si>
+    <t>Travelfusion is aimed at routing and booking services only. according to website, the xml API can only search by route, and doesn't provide train or station data deeper than names</t>
+  </si>
+  <si>
+    <t>yes (general)</t>
+  </si>
+  <si>
+    <t>http://www.realtimetrains.co.uk/about/developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,12 +294,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,19 +316,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,7 +1021,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1038,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -1087,43 +1114,46 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>21</v>
@@ -1132,12 +1162,57 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1145,13 +1220,52 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1159,35 +1273,123 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1212,217 +1414,217 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
